--- a/data/Analyse10.xlsx
+++ b/data/Analyse10.xlsx
@@ -553,15 +553,15 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.17"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="5.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="5.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="5.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="5.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="5.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="5.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="5.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="5.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="5.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="1" width="5.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="1" width="5.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="1" width="5.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="1" width="5.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="1" width="5.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="5.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="5.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="5.35"/>
@@ -580,7 +580,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="39" style="1" width="5.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="39" style="1" width="5.66"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="41" style="1" width="8.5"/>
   </cols>
   <sheetData>
